--- a/data/casemapdata.xlsx
+++ b/data/casemapdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61455</v>
+        <v>155682</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131577</v>
+        <v>176667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123692</v>
+        <v>205005</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13390</v>
+        <v>15326</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28201</v>
+        <v>62385</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1232</v>
+        <v>3830</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3118134</v>
+        <v>5270003</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>218681</v>
+        <v>276666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29906</v>
+        <v>138720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>628817</v>
+        <v>768711</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>325407</v>
+        <v>496780</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10773</v>
+        <v>21580</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>186403</v>
+        <v>275912</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>770842</v>
+        <v>1564485</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3931</v>
+        <v>12105</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366305</v>
+        <v>565865</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1010987</v>
+        <v>1276221</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12686</v>
+        <v>23762</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7884</v>
+        <v>24560</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1190</v>
+        <v>2616</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>314190</v>
+        <v>505157</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200693</v>
+        <v>243220</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48417</v>
+        <v>181856</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15082449</v>
+        <v>21612237</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>229</v>
+        <v>9828</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>409495</v>
+        <v>534312</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13353</v>
+        <v>14640</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142903</v>
+        <v>484317</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4132</v>
+        <v>19513</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25837</v>
+        <v>37976</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18179</v>
+        <v>115875</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74946</v>
+        <v>98402</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1281846</v>
+        <v>1681669</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6674</v>
+        <v>11469</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4862</v>
+        <v>5065</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1235778</v>
+        <v>1665916</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102596</v>
+        <v>108841</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2968626</v>
+        <v>4977043</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3854</v>
+        <v>4176</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11147</v>
+        <v>15255</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30240</v>
+        <v>57269</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265486</v>
+        <v>550134</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46344</v>
+        <v>60942</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342487</v>
+        <v>422908</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113876</v>
+        <v>928684</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>68766</v>
+        <v>121842</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1642696</v>
+        <v>1704436</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>258204</v>
+        <v>368575</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>11319</v>
+        <v>13369</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>174</v>
+        <v>4153</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>269958</v>
+        <v>368131</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>396888</v>
+        <v>513026</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>235140</v>
+        <v>315842</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>70255</v>
+        <v>109881</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7694</v>
+        <v>12840</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3742</v>
+        <v>6764</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>124529</v>
+        <v>168884</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>18474</v>
+        <v>46344</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>261580</v>
+        <v>357550</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>129</v>
+        <v>51648</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>88332</v>
+        <v>149174</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5808421</v>
+        <v>7174580</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>23311</v>
+        <v>33115</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5925</v>
+        <v>9943</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>319266</v>
+        <v>649407</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3517762</v>
+        <v>4355169</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>92856</v>
+        <v>128368</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>358116</v>
+        <v>687278</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>160</v>
+        <v>5704</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>233696</v>
+        <v>584613</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22553</v>
+        <v>30560</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3739</v>
+        <v>6124</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>14073</v>
+        <v>34132</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>13164</v>
+        <v>22827</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>218330</v>
+        <v>371861</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>789188</v>
+        <v>831866</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6506</v>
+        <v>12390</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>21892676</v>
+        <v>34037592</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1703632</v>
+        <v>4232099</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2627094</v>
+        <v>5754047</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1103950</v>
+        <v>2030498</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>251904</v>
+        <v>409647</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>838858</v>
+        <v>1312908</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4092747</v>
+        <v>4709753</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>46428</v>
+        <v>86722</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>628319</v>
+        <v>1714060</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>718632</v>
+        <v>838523</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>393639</v>
+        <v>990461</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>162666</v>
+        <v>251669</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1788,1468 +1788,1498 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>126745</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KIR</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>105784</v>
+        <v>339361</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KSV</t>
+          <t>KOR</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>282981</v>
+        <v>160495</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>KSV</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>97663</v>
+        <v>412228</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KWT</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1205</v>
+        <v>179583</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>122545</v>
+        <v>30615</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>531834</v>
+        <v>178298</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>LVA</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>10761</v>
+        <v>632271</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LBN</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2114</v>
+        <v>21490</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>179697</v>
+        <v>5803</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LBR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2963</v>
+        <v>348647</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>LBY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>255384</v>
+        <v>3580</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LIE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>68153</v>
+        <v>360763</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LTU</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>38641</v>
+        <v>79628</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LUX</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>34158</v>
+        <v>43616</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>432425</v>
+        <v>61702</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>34134</v>
+        <v>2369613</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>14059</v>
+        <v>85932</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDV</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>30432</v>
+        <v>15563</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>37412</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MLT</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>18613</v>
+        <v>4</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MHL</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1226</v>
+        <v>36550</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2361874</v>
+        <v>16472</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MUS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>252413</v>
+        <v>3744574</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MEX</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2477</v>
+        <v>312442</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>44016</v>
+        <v>3354</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>98142</v>
+        <v>332789</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>513314</v>
+        <v>136681</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MNE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>70138</v>
+        <v>941009</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>49552</v>
+        <v>151061</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>377603</v>
+        <v>128187</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1572861</v>
+        <v>804276</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2634</v>
+        <v>2075949</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NLD</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6989</v>
+        <v>4898</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NZL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5310</v>
+        <v>15737</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>165340</v>
+        <v>6139</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>115818</v>
+        <v>208404</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NGA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>199344</v>
+        <v>195385</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>NOR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>854240</v>
+        <v>304025</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>OMN</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>366762</v>
+        <v>1262771</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>11630</v>
+        <v>8</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>PLW</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>294233</v>
+        <v>469569</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PAN</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1824457</v>
+        <v>24041</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PNG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1087885</v>
+        <v>460301</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PRY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2824425</v>
+        <v>2186246</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PER</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>838852</v>
+        <v>2698232</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>210070</v>
+        <v>2931064</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1063949</v>
+        <v>1077963</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>PRT</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4808133</v>
+        <v>237741</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>QAT</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25539</v>
+        <v>1414647</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>ROU</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>45</v>
+        <v>7773388</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>RUS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4607</v>
+        <v>98987</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1895</v>
+        <v>2511</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>KNA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>12129</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>LCA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5067</v>
+        <v>4096</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>VCT</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2317</v>
+        <v>3</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>WSM</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>424445</v>
+        <v>5470</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>SMR</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>40621</v>
+        <v>3659</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>STP</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>698518</v>
+        <v>547797</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SAU</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>6373</v>
+        <v>73853</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4068</v>
+        <v>1031283</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SRB</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>61311</v>
+        <v>21854</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SYC</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>385022</v>
+        <v>6396</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SLE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>245159</v>
+        <v>138327</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SGP</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>20</v>
+        <v>431757</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SVK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>14368</v>
+        <v>304963</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SVN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1592626</v>
+        <v>20</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>SLB</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10637</v>
+        <v>21269</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3567408</v>
+        <v>2914827</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>121338</v>
+        <v>12184</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>34461</v>
+        <v>4982138</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>ESP</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>10933</v>
+        <v>529755</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>LKA</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1007792</v>
+        <v>39416</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>670613</v>
+        <v>45861</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>SUR</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>23256</v>
+        <v>1161264</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>SWE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Taiwan*</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1178</v>
+        <v>853637</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>13308</v>
+        <v>38067</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>SYR</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Taiwan*</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>509</v>
+        <v>16321</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>TWN</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>78855</v>
+        <v>17484</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2965</v>
+        <v>26034</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>13106</v>
+        <v>1751704</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>12720</v>
+        <v>19696</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>318236</v>
+        <v>25836</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4998089</v>
+        <v>53392</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TTO</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>32651865</v>
+        <v>710322</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TUN</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>42224</v>
+        <v>7570902</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TUR</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2160809</v>
+        <v>44767906</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>532710</v>
+        <v>124924</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4446752</v>
+        <v>2716867</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>216146</v>
+        <v>738268</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>93597</v>
+        <v>8356596</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>390575</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>205181</v>
+        <v>179711</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3137</v>
+        <v>4</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VUT</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>West Bank and Gaza</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>300946</v>
+        <v>388743</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>6446</v>
+        <v>853842</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>92004</v>
+        <v>446294</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>9467</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>YEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>209431</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>38403</v>
-      </c>
-      <c r="C188" t="inlineStr">
+      <c r="B190" t="n">
+        <v>132251</v>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>

--- a/data/casemapdata.xlsx
+++ b/data/casemapdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155682</v>
+        <v>156323</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176667</v>
+        <v>186793</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205005</v>
+        <v>206754</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15326</v>
+        <v>15572</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62385</v>
+        <v>64533</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3830</v>
+        <v>4069</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5270003</v>
+        <v>5292549</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>276666</v>
+        <v>312674</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138720</v>
+        <v>175813</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>768711</v>
+        <v>847408</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>496780</v>
+        <v>537004</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21580</v>
+        <v>22429</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275912</v>
+        <v>276956</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1564485</v>
+        <v>1570238</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12105</v>
+        <v>18852</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>565865</v>
+        <v>606033</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1276221</v>
+        <v>1393358</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23762</v>
+        <v>27523</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24560</v>
+        <v>24804</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2616</v>
+        <v>2622</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>505157</v>
+        <v>514679</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>243220</v>
+        <v>256307</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>181856</v>
+        <v>187281</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21612237</v>
+        <v>21835785</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9828</v>
+        <v>13446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>534312</v>
+        <v>619284</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14640</v>
+        <v>15103</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>484317</v>
+        <v>502979</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19513</v>
+        <v>20106</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37976</v>
+        <v>38228</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115875</v>
+        <v>118787</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98402</v>
+        <v>104348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1681669</v>
+        <v>1730818</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11469</v>
+        <v>11579</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5065</v>
+        <v>5107</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1665916</v>
+        <v>1699427</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108841</v>
+        <v>109956</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4977043</v>
+        <v>5007099</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4176</v>
+        <v>4281</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15255</v>
+        <v>17670</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57269</v>
+        <v>57582</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550134</v>
+        <v>561432</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60942</v>
+        <v>61330</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>422908</v>
+        <v>476832</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>928684</v>
+        <v>953750</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>121842</v>
+        <v>124973</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1704436</v>
+        <v>1783227</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>368575</v>
+        <v>396407</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13369</v>
+        <v>13487</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4153</v>
+        <v>4823</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>368131</v>
+        <v>384208</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>513026</v>
+        <v>515859</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>315842</v>
+        <v>333840</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>109881</v>
+        <v>113422</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12840</v>
+        <v>13377</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6764</v>
+        <v>6881</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>168884</v>
+        <v>199251</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>46344</v>
+        <v>46447</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>357550</v>
+        <v>366097</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>51648</v>
+        <v>52209</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>149174</v>
+        <v>160948</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7174580</v>
+        <v>7282823</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>33115</v>
+        <v>36020</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9943</v>
+        <v>9973</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>649407</v>
+        <v>732965</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4355169</v>
+        <v>4684462</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>128368</v>
+        <v>130287</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>687278</v>
+        <v>760592</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5704</v>
+        <v>5850</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>584613</v>
+        <v>602575</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30560</v>
+        <v>30681</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6124</v>
+        <v>6137</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>34132</v>
+        <v>35800</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>22827</v>
+        <v>24004</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>371861</v>
+        <v>375983</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>831866</v>
+        <v>879092</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12390</v>
+        <v>13923</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34037592</v>
+        <v>34321025</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4232099</v>
+        <v>4246174</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5754047</v>
+        <v>5954962</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2030498</v>
+        <v>2058914</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>409647</v>
+        <v>455346</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1312908</v>
+        <v>1332247</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4709753</v>
+        <v>4782802</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>86722</v>
+        <v>89216</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1714060</v>
+        <v>1724128</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>838523</v>
+        <v>868493</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>990461</v>
+        <v>1024449</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>251669</v>
+        <v>253512</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>339361</v>
+        <v>373120</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>160495</v>
+        <v>160809</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>412228</v>
+        <v>412752</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>179583</v>
+        <v>181499</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>30615</v>
+        <v>42891</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>178298</v>
+        <v>224513</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>632271</v>
+        <v>643749</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>21490</v>
+        <v>21643</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5803</v>
+        <v>5815</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>348647</v>
+        <v>359019</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3580</v>
+        <v>3699</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>360763</v>
+        <v>414817</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>79628</v>
+        <v>82190</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>43616</v>
+        <v>43632</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>61702</v>
+        <v>61803</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2369613</v>
+        <v>2486630</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>85932</v>
+        <v>88277</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>15563</v>
+        <v>16195</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>37412</v>
+        <v>37736</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>36550</v>
+        <v>37489</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>16472</v>
+        <v>18205</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3744574</v>
+        <v>3811793</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>312442</v>
+        <v>341675</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3354</v>
+        <v>3424</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>332789</v>
+        <v>362772</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>136681</v>
+        <v>145936</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>941009</v>
+        <v>946766</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>151061</v>
+        <v>151325</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>128187</v>
+        <v>128963</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>804276</v>
+        <v>813828</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2075949</v>
+        <v>2196598</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4898</v>
+        <v>6973</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>15737</v>
+        <v>16699</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6139</v>
+        <v>6399</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>208404</v>
+        <v>212359</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>195385</v>
+        <v>211755</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>304025</v>
+        <v>304318</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1262771</v>
+        <v>1275158</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>469569</v>
+        <v>473005</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>24041</v>
+        <v>31010</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>460301</v>
+        <v>461184</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2186246</v>
+        <v>2203310</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2698232</v>
+        <v>2793898</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2931064</v>
+        <v>3045102</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1077963</v>
+        <v>1092666</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>237741</v>
+        <v>239646</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1414647</v>
+        <v>1676293</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>7773388</v>
+        <v>8494589</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>98987</v>
+        <v>99820</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2511</v>
+        <v>2696</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>12129</v>
+        <v>12610</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4096</v>
+        <v>5050</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5470</v>
+        <v>5569</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3659</v>
+        <v>3715</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>547797</v>
+        <v>548760</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>73853</v>
+        <v>73926</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1031283</v>
+        <v>1162482</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>21854</v>
+        <v>22301</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6396</v>
+        <v>6398</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>138327</v>
+        <v>207975</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>431757</v>
+        <v>493277</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>304963</v>
+        <v>341699</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>21269</v>
+        <v>21998</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2914827</v>
+        <v>2922735</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12184</v>
+        <v>12436</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4982138</v>
+        <v>5019255</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>529755</v>
+        <v>542793</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>39416</v>
+        <v>40433</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>45861</v>
+        <v>49257</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1161264</v>
+        <v>1175425</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>853637</v>
+        <v>881660</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>38067</v>
+        <v>44191</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>16321</v>
+        <v>16428</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>17484</v>
+        <v>17486</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>26034</v>
+        <v>26154</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1751704</v>
+        <v>1935442</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>19696</v>
+        <v>19790</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>25836</v>
+        <v>26096</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3033,253 +3033,268 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>53392</v>
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TON</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>710322</v>
+        <v>58106</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TTO</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7570902</v>
+        <v>712982</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TUN</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>44767906</v>
+        <v>8121196</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TUR</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>124924</v>
+        <v>46252513</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2716867</v>
+        <v>126321</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>738268</v>
+        <v>3118140</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>8356596</v>
+        <v>740136</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>390575</v>
+        <v>9215683</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>179711</v>
+        <v>394443</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4</v>
+        <v>186793</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>388743</v>
+        <v>6</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VUT</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>853842</v>
+        <v>409695</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>West Bank and Gaza</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>446294</v>
+        <v>939463</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>9467</v>
+        <v>454509</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>209431</v>
+        <v>9810</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>YEM</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>209781</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>132251</v>
-      </c>
-      <c r="C190" t="inlineStr">
+      <c r="B191" t="n">
+        <v>133091</v>
+      </c>
+      <c r="C191" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>

--- a/data/casemapdata.xlsx
+++ b/data/casemapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156323</v>
+        <v>156896</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186793</v>
+        <v>195988</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206754</v>
+        <v>208952</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15572</v>
+        <v>16086</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64533</v>
+        <v>65024</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4069</v>
+        <v>4135</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5292549</v>
+        <v>5315348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312674</v>
+        <v>334075</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175813</v>
+        <v>199649</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>847408</v>
+        <v>1056613</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>537004</v>
+        <v>573974</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22429</v>
+        <v>22655</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276956</v>
+        <v>277389</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1570238</v>
+        <v>1574088</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18852</v>
+        <v>23795</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606033</v>
+        <v>640206</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1393358</v>
+        <v>1581500</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27523</v>
+        <v>29501</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24804</v>
+        <v>24846</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514679</v>
+        <v>529075</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>256307</v>
+        <v>268572</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>187281</v>
+        <v>194445</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21835785</v>
+        <v>22017276</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13446</v>
+        <v>14591</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>619284</v>
+        <v>673288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15103</v>
+        <v>15514</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>502979</v>
+        <v>517922</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20106</v>
+        <v>20332</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38228</v>
+        <v>38327</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>118787</v>
+        <v>119867</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104348</v>
+        <v>106190</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1730818</v>
+        <v>1773959</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11579</v>
+        <v>11666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1699427</v>
+        <v>1743137</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109956</v>
+        <v>110983</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5007099</v>
+        <v>5048061</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4281</v>
+        <v>4450</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17670</v>
+        <v>18717</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57582</v>
+        <v>57880</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561432</v>
+        <v>565548</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61330</v>
+        <v>61591</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>476832</v>
+        <v>570380</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>953750</v>
+        <v>960802</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>124973</v>
+        <v>129888</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1783227</v>
+        <v>1995291</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>396407</v>
+        <v>454389</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13487</v>
+        <v>13501</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4823</v>
+        <v>5642</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>384208</v>
+        <v>402731</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>515859</v>
+        <v>523847</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>333840</v>
+        <v>350397</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>113422</v>
+        <v>118041</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13377</v>
+        <v>13538</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6881</v>
+        <v>7175</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>199251</v>
+        <v>217381</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>46447</v>
+        <v>46487</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>366097</v>
+        <v>370200</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>52209</v>
+        <v>52453</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>160948</v>
+        <v>174823</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7282823</v>
+        <v>7517669</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>36020</v>
+        <v>37045</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9973</v>
+        <v>9988</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>732965</v>
+        <v>812246</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4684462</v>
+        <v>5400687</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>130287</v>
+        <v>130827</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>760592</v>
+        <v>878920</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5850</v>
+        <v>5873</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>602575</v>
+        <v>613892</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30681</v>
+        <v>30715</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6137</v>
+        <v>6434</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>35800</v>
+        <v>37325</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>24004</v>
+        <v>24768</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>375983</v>
+        <v>377420</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>879092</v>
+        <v>998488</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>13923</v>
+        <v>16435</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34321025</v>
+        <v>34518901</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4246174</v>
+        <v>4253412</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5954962</v>
+        <v>6077438</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2058914</v>
+        <v>2074419</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>455346</v>
+        <v>528964</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1332247</v>
+        <v>1340435</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4782802</v>
+        <v>4925688</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>89216</v>
+        <v>90705</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1724128</v>
+        <v>1725850</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>868493</v>
+        <v>914849</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1024449</v>
+        <v>1046722</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>253512</v>
+        <v>254710</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>373120</v>
+        <v>418252</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>160809</v>
+        <v>161006</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>412752</v>
+        <v>413137</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>181499</v>
+        <v>182833</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>42891</v>
+        <v>62160</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>224513</v>
+        <v>246116</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>643749</v>
+        <v>659404</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>21643</v>
+        <v>21729</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>359019</v>
+        <v>367811</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3699</v>
+        <v>4144</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>414817</v>
+        <v>455558</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>82190</v>
+        <v>85960</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>43632</v>
+        <v>43672</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>61803</v>
+        <v>61863</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2486630</v>
+        <v>2586601</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>88277</v>
+        <v>90725</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>16195</v>
+        <v>16946</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>37736</v>
+        <v>38709</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>37489</v>
+        <v>38647</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>18205</v>
+        <v>18979</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3811793</v>
+        <v>3862137</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>341675</v>
+        <v>358202</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3424</v>
+        <v>3554</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>362772</v>
+        <v>377674</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>145936</v>
+        <v>154758</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>946766</v>
+        <v>948923</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>151325</v>
+        <v>151488</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>128963</v>
+        <v>129091</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>813828</v>
+        <v>819019</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2196598</v>
+        <v>2483084</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6973</v>
+        <v>10177</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>16699</v>
+        <v>17023</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6399</v>
+        <v>6836</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>212359</v>
+        <v>213589</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>211755</v>
+        <v>242911</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>304318</v>
+        <v>304492</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1275158</v>
+        <v>1282195</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>473005</v>
+        <v>475997</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>31010</v>
+        <v>34442</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>461184</v>
+        <v>462198</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2203310</v>
+        <v>2224344</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2793898</v>
+        <v>2826410</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3045102</v>
+        <v>3345388</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1092666</v>
+        <v>1122283</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>239646</v>
+        <v>242087</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1676293</v>
+        <v>1762701</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>8494589</v>
+        <v>9170898</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>99820</v>
+        <v>100217</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2696</v>
+        <v>2766</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>12610</v>
+        <v>12904</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5050</v>
+        <v>5391</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5569</v>
+        <v>5758</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3715</v>
+        <v>3731</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>548760</v>
+        <v>549479</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>73926</v>
+        <v>73968</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1162482</v>
+        <v>1233057</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>22301</v>
+        <v>22895</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6398</v>
+        <v>6400</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>207975</v>
+        <v>252188</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>493277</v>
+        <v>1074264</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>341699</v>
+        <v>400685</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>21998</v>
+        <v>22969</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2922735</v>
+        <v>2929862</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12436</v>
+        <v>12638</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5019255</v>
+        <v>5080663</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>542793</v>
+        <v>556626</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>40433</v>
+        <v>41558</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>49257</v>
+        <v>50438</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1175425</v>
+        <v>1188735</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>881660</v>
+        <v>941218</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>44191</v>
+        <v>47212</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>16428</v>
+        <v>16529</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>17486</v>
+        <v>17489</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>26154</v>
+        <v>26227</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1935442</v>
+        <v>2064581</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>19790</v>
+        <v>19819</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>26096</v>
+        <v>26207</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>58106</v>
+        <v>65889</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>712982</v>
+        <v>716262</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>8121196</v>
+        <v>8573524</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>46252513</v>
+        <v>47730591</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>126321</v>
+        <v>127177</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3118140</v>
+        <v>3493203</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>740136</v>
+        <v>741433</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>9215683</v>
+        <v>9897206</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>394443</v>
+        <v>397841</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>186793</v>
+        <v>191334</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>409695</v>
+        <v>425213</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>939463</v>
+        <v>1094514</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>454509</v>
+        <v>457950</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>9810</v>
+        <v>9955</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>209781</v>
+        <v>210070</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>133091</v>
+        <v>133647</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>

--- a/data/casemapdata.xlsx
+++ b/data/casemapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156896</v>
+        <v>157858</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195988</v>
+        <v>203524</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208952</v>
+        <v>212652</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16086</v>
+        <v>19440</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65024</v>
+        <v>65397</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4135</v>
+        <v>4159</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5315348</v>
+        <v>5356885</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>334075</v>
+        <v>342405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199649</v>
+        <v>228925</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1056613</v>
+        <v>1225555</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>573974</v>
+        <v>603254</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22655</v>
+        <v>22881</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277389</v>
+        <v>278037</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1574088</v>
+        <v>1578996</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23795</v>
+        <v>26740</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>640206</v>
+        <v>673269</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1581500</v>
+        <v>1929772</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29501</v>
+        <v>31033</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24846</v>
+        <v>24897</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2632</v>
+        <v>2649</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529075</v>
+        <v>551516</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>268572</v>
+        <v>280980</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194445</v>
+        <v>196090</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22017276</v>
+        <v>22177059</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14591</v>
+        <v>15343</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>673288</v>
+        <v>714156</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15514</v>
+        <v>16334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>517922</v>
+        <v>526381</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20332</v>
+        <v>20666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38327</v>
+        <v>38496</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>119867</v>
+        <v>120343</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>106190</v>
+        <v>107549</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1773959</v>
+        <v>1839770</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11666</v>
+        <v>11912</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5107</v>
+        <v>5703</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1743137</v>
+        <v>1778370</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110983</v>
+        <v>112239</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5048061</v>
+        <v>5091508</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4450</v>
+        <v>4564</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18717</v>
+        <v>19066</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>59851</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>565548</v>
+        <v>567995</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61591</v>
+        <v>61896</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>570380</v>
+        <v>651863</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>960802</v>
+        <v>963566</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>129888</v>
+        <v>140458</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1995291</v>
+        <v>2325181</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>454389</v>
+        <v>554488</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13501</v>
+        <v>13514</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5642</v>
+        <v>6233</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>402731</v>
+        <v>410087</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>523847</v>
+        <v>530865</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>350397</v>
+        <v>368335</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>118041</v>
+        <v>119803</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13538</v>
+        <v>13612</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7175</v>
+        <v>7629</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>217381</v>
+        <v>227902</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>46487</v>
+        <v>52174</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>370200</v>
+        <v>373000</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>52453</v>
+        <v>52577</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>174823</v>
+        <v>201051</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7517669</v>
+        <v>8318995</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>37045</v>
+        <v>37591</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9988</v>
+        <v>9998</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>812246</v>
+        <v>886364</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5400687</v>
+        <v>6528894</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>130827</v>
+        <v>131412</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>878920</v>
+        <v>999652</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5873</v>
+        <v>5913</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>613892</v>
+        <v>622168</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30715</v>
+        <v>30798</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6434</v>
+        <v>6447</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>37325</v>
+        <v>38453</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>24768</v>
+        <v>25744</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>377420</v>
+        <v>378423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>998488</v>
+        <v>1182922</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16435</v>
+        <v>19159</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34518901</v>
+        <v>34690510</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4253412</v>
+        <v>4258980</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6077438</v>
+        <v>6152524</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2074419</v>
+        <v>2087497</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>528964</v>
+        <v>618956</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1340435</v>
+        <v>1349741</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4925688</v>
+        <v>5206305</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>90705</v>
+        <v>91725</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1725850</v>
+        <v>1727925</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>914849</v>
+        <v>1006136</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1046722</v>
+        <v>1062833</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>254710</v>
+        <v>256134</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>418252</v>
+        <v>517271</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>161006</v>
+        <v>161193</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>413137</v>
+        <v>413672</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>182833</v>
+        <v>183931</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>62160</v>
+        <v>88046</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>246116</v>
+        <v>261463</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>659404</v>
+        <v>688515</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>21729</v>
+        <v>22448</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5818</v>
+        <v>5835</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>367811</v>
+        <v>377450</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4144</v>
+        <v>5297</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>455558</v>
+        <v>489673</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>85960</v>
+        <v>93429</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>43672</v>
+        <v>45794</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>61863</v>
+        <v>62230</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2586601</v>
+        <v>2688149</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>90725</v>
+        <v>93064</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>16946</v>
+        <v>18504</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>38709</v>
+        <v>40468</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>38647</v>
+        <v>39778</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>18979</v>
+        <v>22461</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3862137</v>
+        <v>3914706</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>358202</v>
+        <v>369402</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3554</v>
+        <v>4093</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>377674</v>
+        <v>385353</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>154758</v>
+        <v>159635</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>948923</v>
+        <v>951380</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>151488</v>
+        <v>153408</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>129091</v>
+        <v>132271</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>819019</v>
+        <v>823980</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2483084</v>
+        <v>2905742</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10177</v>
+        <v>12886</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>17023</v>
+        <v>17328</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6836</v>
+        <v>7149</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>213589</v>
+        <v>217063</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>242911</v>
+        <v>314258</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>304492</v>
+        <v>304679</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1282195</v>
+        <v>1289049</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>475997</v>
+        <v>480573</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>34442</v>
+        <v>35835</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>462198</v>
+        <v>463650</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2224344</v>
+        <v>2252846</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2826410</v>
+        <v>2836360</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3345388</v>
+        <v>3808798</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1122283</v>
+        <v>1190409</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>242087</v>
+        <v>245188</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1762701</v>
+        <v>1791502</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>9170898</v>
+        <v>9812538</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>100217</v>
+        <v>100584</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2766</v>
+        <v>2796</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>12904</v>
+        <v>13086</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5391</v>
+        <v>5692</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5758</v>
+        <v>6464</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>549479</v>
+        <v>550189</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>73968</v>
+        <v>74076</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1233057</v>
+        <v>1273103</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>22895</v>
+        <v>23806</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6400</v>
+        <v>6421</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>252188</v>
+        <v>272992</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1074264</v>
+        <v>1280370</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>400685</v>
+        <v>439169</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>22969</v>
+        <v>23074</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2929862</v>
+        <v>3129622</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12638</v>
+        <v>12873</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5080663</v>
+        <v>5290190</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>556626</v>
+        <v>572188</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>41558</v>
+        <v>44529</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50438</v>
+        <v>51167</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1188735</v>
+        <v>1229217</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>941218</v>
+        <v>1111923</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>47212</v>
+        <v>49189</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>16529</v>
+        <v>16731</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>17489</v>
+        <v>17493</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>26227</v>
+        <v>26309</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2064581</v>
+        <v>2168646</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>19819</v>
+        <v>19829</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>26207</v>
+        <v>26372</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>65889</v>
+        <v>80049</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>716262</v>
+        <v>719434</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>8573524</v>
+        <v>9024193</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>47730591</v>
+        <v>49884587</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127177</v>
+        <v>127944</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3493203</v>
+        <v>3728246</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>741433</v>
+        <v>742719</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>9897206</v>
+        <v>10833033</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>397841</v>
+        <v>402383</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>191334</v>
+        <v>195524</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>425213</v>
+        <v>437887</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1094514</v>
+        <v>1398413</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>457950</v>
+        <v>463573</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>9955</v>
+        <v>10063</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>210070</v>
+        <v>210959</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>133647</v>
+        <v>165002</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
